--- a/optimized_portfolio_midsmallcap.xlsx
+++ b/optimized_portfolio_midsmallcap.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meetv\OneDrive - Indian Institute of Technology Bombay\Desktop\PORTFOLIO MANAGMENT COMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1DF81-7F4B-4E52-9C08-91FBF2597E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8DEB6-CA9D-49EF-B327-E2BEDB4530B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$246</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="253">
   <si>
     <t>Stock</t>
   </si>
@@ -862,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1167,10 +1171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K248" sqref="K248"/>
+    <sheetView topLeftCell="A144" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K254" sqref="K254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,7 +1232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1276,7 @@
         <v>21649.550585420191</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>75278.756367615497</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>13496.291131996661</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>16132.372168703998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>19975.268607105605</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>3086.8281840511995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>4648.5023114766454</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1672,7 @@
         <v>49915.053805165539</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>19767.503318728708</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>163882.72855107873</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>58733.491951801974</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>16683.261543436638</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>14660.287723589068</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>19585.415380179846</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>28143.219780415995</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2151,7 +2156,7 @@
         <v>62149.237117000004</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>21342.457211004636</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>84565.51782215586</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>10430.207191408794</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>12847.937622557183</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2508,7 @@
         <v>18069.902041112291</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>6099.4500746817366</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>26444.105006755875</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>7538.7104346069391</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>31359.218418008059</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>23235.451111825078</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>7757.8225649042251</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>35763.114537547612</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>9592.3118855934736</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>13239.523898023939</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>4931.4959429866367</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>12060.277082216347</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>7333.7269109631634</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>7399.483648176355</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>24434.817209773588</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>28728.340726172457</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>10079.85609907684</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>4388.454707814949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>52833.764169310372</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>21871.377594257214</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>7641.698232533151</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>20358.243838474456</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>5362.1460287999989</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>7320.7068038987036</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>2522.4571437941399</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>70208.62863051625</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>7783.3256106487706</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>7666.6012077720361</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>23618.856410140444</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4219,7 +4224,7 @@
         <v>12132.472393923379</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>18752.770165936483</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4312,7 @@
         <v>15704.610196538535</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4351,7 +4356,7 @@
         <v>10675.22455531497</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>34983.91579639283</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>3062.5712716280182</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>12760.792525937613</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>12354.085301588928</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4571,7 +4576,7 @@
         <v>8788.6011146529181</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>20557.985487833412</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>6960.794035095545</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>106946.47669830272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>8862.9003909023886</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>11870.975327509539</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>10668.345860953388</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>10999.500366555074</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>11262.842545482801</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>3484.019297908108</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -5055,7 +5060,7 @@
         <v>10948.514037453622</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>918.86229824872976</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>16510.348762628462</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>108091.55183972277</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>8580.9718407879936</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>22432.549923047405</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>5826.0699648597374</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -5451,7 +5456,7 @@
         <v>26973.869336881518</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -5539,7 +5544,7 @@
         <v>47656.336303749908</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>11753.030345578376</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -5627,7 +5632,7 @@
         <v>6099.8276043526485</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>13466.848953876837</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>3988.4721940995041</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>17997.299488429475</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -5847,7 +5852,7 @@
         <v>178443.38666294934</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>25486.836746816181</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>15050.483268443368</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>32726.640448558046</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>13957.7849966175</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>16821.466004786223</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>14242.834612736491</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -6243,7 +6248,7 @@
         <v>41478.279200065466</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>6214.6590995132665</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -6375,7 +6380,7 @@
         <v>52743.768249635985</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>9404.3316768935547</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>85440.564076269889</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>4499.9737290575395</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>11202.765063553617</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>28296.581244946829</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>6330.3737486239897</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -6727,7 +6732,7 @@
         <v>21846.470792407523</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>50703.067195238866</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>41599.161200905721</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>6722.4549902343751</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>117722.85294959298</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>14283.605173772952</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>15398.979313999747</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -7079,7 +7084,7 @@
         <v>27929.962423682879</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -7167,7 +7172,7 @@
         <v>21695.650776172806</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>30783.880060718544</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>4235.0939895328202</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -7299,7 +7304,7 @@
         <v>27026.860613151464</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>19273.066581622181</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>14107.856943379966</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>6264.6291715589114</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>185303.71750424823</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>16548.675691843615</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>4701.2968389587486</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -7695,7 +7700,7 @@
         <v>69734.115866025473</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -7739,7 +7744,7 @@
         <v>14456.465852609379</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -7783,7 +7788,7 @@
         <v>21289.184865037347</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>4557.370109796444</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>8970.098143069441</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>20725.480080249989</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>9180.3728398770218</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>46895.516388955934</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -8179,7 +8184,7 @@
         <v>46216.327074616987</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -8267,7 +8272,7 @@
         <v>108145.6394245652</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>26609.25601102542</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -8399,7 +8404,7 @@
         <v>63287.51418989848</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>16418.698354591528</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>8476.2613006553202</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>39937.040277031032</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -8619,7 +8624,7 @@
         <v>182335.16719535959</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -8751,7 +8756,7 @@
         <v>23032.347894743041</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>177</v>
       </c>
@@ -8795,7 +8800,7 @@
         <v>69324.930895568934</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>39877.225964042649</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -8927,7 +8932,7 @@
         <v>4873.9209026982253</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -8971,7 +8976,7 @@
         <v>17859.326483688968</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -9015,7 +9020,7 @@
         <v>13328.567177886711</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>5213.885342892785</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -9103,7 +9108,7 @@
         <v>2395.9235766062066</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>7694.1991934714579</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -9235,7 +9240,7 @@
         <v>62440.930485786084</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>52555.54720335218</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>31990.630975624477</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -9411,7 +9416,7 @@
         <v>18561.492568130201</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -9455,7 +9460,7 @@
         <v>22741.291147616172</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -9499,7 +9504,7 @@
         <v>3087.5894558049322</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -9543,7 +9548,7 @@
         <v>10413.368894168067</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -9587,7 +9592,7 @@
         <v>16106.306353598935</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -9631,7 +9636,7 @@
         <v>3476.8283870090922</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>10547.017509007446</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>86332.802255456263</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>9311.8950238101479</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>37738.207713132069</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -9939,7 +9944,7 @@
         <v>16269.913767097465</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -9983,7 +9988,7 @@
         <v>6664.1496616887489</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>92618.362901527536</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>207</v>
       </c>
@@ -10159,7 +10164,7 @@
         <v>64191.298462189181</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -10203,7 +10208,7 @@
         <v>10650.618998300763</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -10247,7 +10252,7 @@
         <v>9932.4143298626022</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>18061.369016320001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>4701.9327493165065</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -10379,7 +10384,7 @@
         <v>21063.633147710898</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>214</v>
       </c>
@@ -10467,7 +10472,7 @@
         <v>24066.639803440936</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -10511,7 +10516,7 @@
         <v>2999.4771813995458</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -10555,7 +10560,7 @@
         <v>5276.5495235195413</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -10599,7 +10604,7 @@
         <v>8443.3962597053123</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>219</v>
       </c>
@@ -10687,7 +10692,7 @@
         <v>52293.254355789068</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>221</v>
       </c>
@@ -10731,7 +10736,7 @@
         <v>5892.8037670440008</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -10775,7 +10780,7 @@
         <v>17192.16715171306</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>223</v>
       </c>
@@ -10819,7 +10824,7 @@
         <v>32656.494592804069</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>224</v>
       </c>
@@ -10863,7 +10868,7 @@
         <v>15602.215200000004</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>225</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>14168.777624591903</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>226</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>196998.47994318604</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -11039,7 +11044,7 @@
         <v>4000.6303161568644</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>229</v>
       </c>
@@ -11083,7 +11088,7 @@
         <v>11710.872486713974</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>230</v>
       </c>
@@ -11127,7 +11132,7 @@
         <v>23045.289070834482</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>231</v>
       </c>
@@ -11171,7 +11176,7 @@
         <v>29261.775913283662</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>232</v>
       </c>
@@ -11215,7 +11220,7 @@
         <v>3370.3141256373492</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>233</v>
       </c>
@@ -11259,7 +11264,7 @@
         <v>12440.384810013553</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>234</v>
       </c>
@@ -11303,7 +11308,7 @@
         <v>7029.1803102592921</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>235</v>
       </c>
@@ -11391,7 +11396,7 @@
         <v>52523.12141048997</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -11435,7 +11440,7 @@
         <v>5741.3944687829153</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>238</v>
       </c>
@@ -11479,7 +11484,7 @@
         <v>34215.174128167579</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>239</v>
       </c>
@@ -11523,7 +11528,7 @@
         <v>4332.5002114181534</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -11567,7 +11572,7 @@
         <v>19239.8729120389</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>241</v>
       </c>
@@ -11611,7 +11616,7 @@
         <v>5224.24909282095</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>242</v>
       </c>
@@ -11655,7 +11660,7 @@
         <v>8277.3976370147975</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>243</v>
       </c>
@@ -11699,7 +11704,7 @@
         <v>10962.67399812976</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>244</v>
       </c>
@@ -11743,7 +11748,7 @@
         <v>76583.092106750497</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>245</v>
       </c>
@@ -11787,7 +11792,7 @@
         <v>6528.0316618198185</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>246</v>
       </c>
@@ -11831,7 +11836,10 @@
         <v>25340.867191634024</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="K246">
         <f>SUM(K2:K242)</f>
         <v>1820196.9500000007</v>
@@ -11842,6 +11850,1976 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E246" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <top10 val="50" filterVal="0.99387254901960764"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C7C3A-3061-4F2C-BAA6-DB2FCE8B85D8}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1199.5999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.5233009708737859</v>
+      </c>
+      <c r="F2">
+        <v>0.72668367126500655</v>
+      </c>
+      <c r="G2">
+        <v>11626.938740240104</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9.6923463989997547</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11996</v>
+      </c>
+      <c r="L2">
+        <v>75278.756367615497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1002.9</v>
+      </c>
+      <c r="C3">
+        <v>0.3785</v>
+      </c>
+      <c r="D3">
+        <v>0.1293</v>
+      </c>
+      <c r="E3">
+        <v>2.4632637277648879</v>
+      </c>
+      <c r="F3">
+        <v>1.1750885499398971</v>
+      </c>
+      <c r="G3">
+        <v>18801.416799038354</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>18.747050353014611</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>19055.099999999999</v>
+      </c>
+      <c r="L3">
+        <v>49915.053805165539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>544.75</v>
+      </c>
+      <c r="C4">
+        <v>1.2618</v>
+      </c>
+      <c r="D4">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="E4">
+        <v>1.832850388897362</v>
+      </c>
+      <c r="F4">
+        <v>0.87435278710511954</v>
+      </c>
+      <c r="G4">
+        <v>13989.644593681913</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>25.680852856690066</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>14163.5</v>
+      </c>
+      <c r="L4">
+        <v>163882.72855107873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7895.5</v>
+      </c>
+      <c r="C5">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.89760000000000006</v>
+      </c>
+      <c r="E5">
+        <v>0.99387254901960764</v>
+      </c>
+      <c r="F5">
+        <v>0.47412229526565391</v>
+      </c>
+      <c r="G5">
+        <v>7585.9567242504627</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.96079497489081911</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7895.5</v>
+      </c>
+      <c r="L5">
+        <v>58733.491951801974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>369.5</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="E6">
+        <v>1.036092451326426</v>
+      </c>
+      <c r="F6">
+        <v>0.4942631040719202</v>
+      </c>
+      <c r="G6">
+        <v>7908.2096651507236</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>21.402461881328076</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>8129</v>
+      </c>
+      <c r="L6">
+        <v>62149.237117000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>54.4</v>
+      </c>
+      <c r="C7">
+        <v>0.3599</v>
+      </c>
+      <c r="D7">
+        <v>0.2712</v>
+      </c>
+      <c r="E7">
+        <v>1.1058259587020649</v>
+      </c>
+      <c r="F7">
+        <v>0.527529150715905</v>
+      </c>
+      <c r="G7">
+        <v>8440.4664114544794</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>155.15563256350146</v>
+      </c>
+      <c r="J7">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <v>8486.4</v>
+      </c>
+      <c r="L7">
+        <v>21342.457211004636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1309.3</v>
+      </c>
+      <c r="C8">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.0981432360742709</v>
+      </c>
+      <c r="F8">
+        <v>0.52386414347752985</v>
+      </c>
+      <c r="G8">
+        <v>8381.8262956404778</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6.4017614722679888</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>9165.1</v>
+      </c>
+      <c r="L8">
+        <v>16872.656487831962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>746.2</v>
+      </c>
+      <c r="C9">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D9">
+        <v>6.5099999999999991E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.4639016897081421</v>
+      </c>
+      <c r="F9">
+        <v>2.1294836214687529</v>
+      </c>
+      <c r="G9">
+        <v>34071.737943500048</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>45.660329594612769</v>
+      </c>
+      <c r="J9">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>34325.200000000004</v>
+      </c>
+      <c r="L9">
+        <v>84565.51782215586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>833.7</v>
+      </c>
+      <c r="C10">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.1762</v>
+      </c>
+      <c r="E10">
+        <v>1.4381384790011349</v>
+      </c>
+      <c r="F10">
+        <v>0.68605729904350399</v>
+      </c>
+      <c r="G10">
+        <v>10976.916784696064</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>13.166506878608688</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>11671.800000000001</v>
+      </c>
+      <c r="L10">
+        <v>26444.105006755875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2140.3000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.0928279618701771</v>
+      </c>
+      <c r="F11">
+        <v>0.52132851654216761</v>
+      </c>
+      <c r="G11">
+        <v>8341.256264674681</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3.8972369596199972</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>8561.2000000000007</v>
+      </c>
+      <c r="L11">
+        <v>31359.218418008059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>3708.8</v>
+      </c>
+      <c r="C12">
+        <v>0.2782</v>
+      </c>
+      <c r="D12">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.2972651605231871</v>
+      </c>
+      <c r="F12">
+        <v>0.61885433507761156</v>
+      </c>
+      <c r="G12">
+        <v>9901.6693612417857</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2.6697771142261071</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>11126.400000000001</v>
+      </c>
+      <c r="L12">
+        <v>23235.451111825078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2109.6999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.53560000000000008</v>
+      </c>
+      <c r="D13">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>11.51573849878935</v>
+      </c>
+      <c r="F13">
+        <v>5.4935297026876091</v>
+      </c>
+      <c r="G13">
+        <v>87896.47524300174</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>41.66302092382886</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>88607.4</v>
+      </c>
+      <c r="L13">
+        <v>320851.66964517895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>5301.5</v>
+      </c>
+      <c r="C14">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.292456479690522</v>
+      </c>
+      <c r="F14">
+        <v>0.6165603761632299</v>
+      </c>
+      <c r="G14">
+        <v>9864.966018611678</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.8607877051045323</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>10603</v>
+      </c>
+      <c r="L14">
+        <v>28728.340726172457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>3002.5</v>
+      </c>
+      <c r="C15">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.2712</v>
+      </c>
+      <c r="E15">
+        <v>1.0608407079646021</v>
+      </c>
+      <c r="F15">
+        <v>0.50606914525163682</v>
+      </c>
+      <c r="G15">
+        <v>8097.1063240261892</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2.6967881179104709</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>9007.5</v>
+      </c>
+      <c r="L15">
+        <v>22048.749119714503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>1554.3</v>
+      </c>
+      <c r="C16">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="E16">
+        <v>1.276244207132782</v>
+      </c>
+      <c r="F16">
+        <v>0.6088263866450262</v>
+      </c>
+      <c r="G16">
+        <v>9741.2221863204195</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6.2672728471468959</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>10880.1</v>
+      </c>
+      <c r="L16">
+        <v>52833.764169310372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>984.65</v>
+      </c>
+      <c r="C17">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="E17">
+        <v>1.0654478976234001</v>
+      </c>
+      <c r="F17">
+        <v>0.50826698373495993</v>
+      </c>
+      <c r="G17">
+        <v>8132.2717397593588</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>8.2590481285323296</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>8861.85</v>
+      </c>
+      <c r="L17">
+        <v>21871.377594257214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>536.35</v>
+      </c>
+      <c r="C18">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.99539625123314712</v>
+      </c>
+      <c r="F18">
+        <v>0.47484917034787377</v>
+      </c>
+      <c r="G18">
+        <v>7597.5867255659805</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>14.165352336284105</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>8045.25</v>
+      </c>
+      <c r="L18">
+        <v>20358.243838474456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1015.4</v>
+      </c>
+      <c r="C19">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.6470999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.305980528511822</v>
+      </c>
+      <c r="F19">
+        <v>0.62301196100151179</v>
+      </c>
+      <c r="G19">
+        <v>9968.1913760241896</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>9.8170094307900229</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>10154</v>
+      </c>
+      <c r="L19">
+        <v>70208.62863051625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>1755.5</v>
+      </c>
+      <c r="C20">
+        <v>1.1654</v>
+      </c>
+      <c r="D20">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="E20">
+        <v>1.2514434506962531</v>
+      </c>
+      <c r="F20">
+        <v>0.59699530067971707</v>
+      </c>
+      <c r="G20">
+        <v>9551.9248108754728</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5.4411420170182128</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>10533</v>
+      </c>
+      <c r="L20">
+        <v>106946.47669830272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>514.25</v>
+      </c>
+      <c r="C21">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.1419</v>
+      </c>
+      <c r="E21">
+        <v>1.7780126849894291</v>
+      </c>
+      <c r="F21">
+        <v>0.84819271449865286</v>
+      </c>
+      <c r="G21">
+        <v>13571.083431978446</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>26.390050426793284</v>
+      </c>
+      <c r="J21">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>13884.75</v>
+      </c>
+      <c r="L21">
+        <v>31378.880915350328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <v>17780</v>
+      </c>
+      <c r="C22">
+        <v>0.82510000000000006</v>
+      </c>
+      <c r="D22">
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="E22">
+        <v>1.547532362459547</v>
+      </c>
+      <c r="F22">
+        <v>0.73824314436591343</v>
+      </c>
+      <c r="G22">
+        <v>11811.890309854614</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.66433578795582759</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>17780</v>
+      </c>
+      <c r="L22">
+        <v>108091.55183972277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>50.09</v>
+      </c>
+      <c r="C23">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.749251497005988</v>
+      </c>
+      <c r="F23">
+        <v>0.83447232301110486</v>
+      </c>
+      <c r="G23">
+        <v>13351.557168177678</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>266.55135093187619</v>
+      </c>
+      <c r="J23">
+        <v>267</v>
+      </c>
+      <c r="K23">
+        <v>13374.03</v>
+      </c>
+      <c r="L23">
+        <v>47656.336303749908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>167.26</v>
+      </c>
+      <c r="C24">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.2429</v>
+      </c>
+      <c r="E24">
+        <v>3.433923425277893</v>
+      </c>
+      <c r="F24">
+        <v>1.638137261930886</v>
+      </c>
+      <c r="G24">
+        <v>26210.196190894178</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>156.70331334983965</v>
+      </c>
+      <c r="J24">
+        <v>157</v>
+      </c>
+      <c r="K24">
+        <v>26259.82</v>
+      </c>
+      <c r="L24">
+        <v>178443.38666294934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <v>302.45</v>
+      </c>
+      <c r="C25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.1328</v>
+      </c>
+      <c r="E25">
+        <v>2.7334337349397591</v>
+      </c>
+      <c r="F25">
+        <v>1.30397190026489</v>
+      </c>
+      <c r="G25">
+        <v>20863.550404238238</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>68.981816512607836</v>
+      </c>
+      <c r="J25">
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <v>20869.05</v>
+      </c>
+      <c r="L25">
+        <v>60133.624291021355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="E26">
+        <v>1.283575213084543</v>
+      </c>
+      <c r="F26">
+        <v>0.61232360907247274</v>
+      </c>
+      <c r="G26">
+        <v>9797.1777451595644</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>554.45261715673814</v>
+      </c>
+      <c r="J26">
+        <v>555</v>
+      </c>
+      <c r="K26">
+        <v>9806.85</v>
+      </c>
+      <c r="L26">
+        <v>41478.279200065466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <v>712.05</v>
+      </c>
+      <c r="C27">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.622</v>
+      </c>
+      <c r="E27">
+        <v>1.167363344051447</v>
+      </c>
+      <c r="F27">
+        <v>0.55688527531686771</v>
+      </c>
+      <c r="G27">
+        <v>8910.1644050698833</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>12.513397100020903</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>9256.65</v>
+      </c>
+      <c r="L27">
+        <v>52743.768249635985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28">
+        <v>390.4</v>
+      </c>
+      <c r="C28">
+        <v>1.0342</v>
+      </c>
+      <c r="D28">
+        <v>0.7501000000000001</v>
+      </c>
+      <c r="E28">
+        <v>1.2987601653112919</v>
+      </c>
+      <c r="F28">
+        <v>0.6195675201859725</v>
+      </c>
+      <c r="G28">
+        <v>9913.0803229755602</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>25.392111483031663</v>
+      </c>
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>10150.4</v>
+      </c>
+      <c r="L28">
+        <v>85440.564076269889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29">
+        <v>1161.0999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="E29">
+        <v>1.601591187270502</v>
+      </c>
+      <c r="F29">
+        <v>0.76403165630742598</v>
+      </c>
+      <c r="G29">
+        <v>12224.506500918817</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>10.528383860923967</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>12772.099999999999</v>
+      </c>
+      <c r="L29">
+        <v>50703.067195238866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>679.95</v>
+      </c>
+      <c r="C30">
+        <v>0.316</v>
+      </c>
+      <c r="D30">
+        <v>0.2147</v>
+      </c>
+      <c r="E30">
+        <v>1.192361434559851</v>
+      </c>
+      <c r="F30">
+        <v>0.56881049858698873</v>
+      </c>
+      <c r="G30">
+        <v>9100.9679773918197</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>13.384760610915242</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>9519.3000000000011</v>
+      </c>
+      <c r="L30">
+        <v>21695.650776172806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31">
+        <v>2381.3000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="D31">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E31">
+        <v>8.3471264367816111</v>
+      </c>
+      <c r="F31">
+        <v>3.981957997515273</v>
+      </c>
+      <c r="G31">
+        <v>63711.327960244365</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>26.754851534978524</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>64295.100000000006</v>
+      </c>
+      <c r="L31">
+        <v>185303.71750424823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32">
+        <v>3200.4</v>
+      </c>
+      <c r="C32">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="E32">
+        <v>1.056908608632747</v>
+      </c>
+      <c r="F32">
+        <v>0.50419335548133803</v>
+      </c>
+      <c r="G32">
+        <v>8067.0936877014083</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2.520651695944697</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>9601.2000000000007</v>
+      </c>
+      <c r="L32">
+        <v>69734.115866025473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33">
+        <v>86.06</v>
+      </c>
+      <c r="C33">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.249</v>
+      </c>
+      <c r="E33">
+        <v>1.1261044176706829</v>
+      </c>
+      <c r="F33">
+        <v>0.53720289562427936</v>
+      </c>
+      <c r="G33">
+        <v>8595.2463299884694</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>99.875044503700551</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>8606</v>
+      </c>
+      <c r="L33">
+        <v>20725.480080249989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34">
+        <v>1913</v>
+      </c>
+      <c r="C34">
+        <v>0.3165</v>
+      </c>
+      <c r="D34">
+        <v>0.2142</v>
+      </c>
+      <c r="E34">
+        <v>1.1974789915966391</v>
+      </c>
+      <c r="F34">
+        <v>0.57125180546363807</v>
+      </c>
+      <c r="G34">
+        <v>9140.0288874182097</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4.7778509604904391</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>9565</v>
+      </c>
+      <c r="L34">
+        <v>21824.663920050625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35">
+        <v>554.70000000000005</v>
+      </c>
+      <c r="C35">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="D35">
+        <v>0.53560000000000008</v>
+      </c>
+      <c r="E35">
+        <v>1.207804331590739</v>
+      </c>
+      <c r="F35">
+        <v>0.5761774610743402</v>
+      </c>
+      <c r="G35">
+        <v>9218.8393771894425</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>16.619504916512426</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>9429.9000000000015</v>
+      </c>
+      <c r="L35">
+        <v>46895.516388955934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36">
+        <v>13193</v>
+      </c>
+      <c r="C36">
+        <v>1.0163</v>
+      </c>
+      <c r="D36">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E36">
+        <v>1.068491620111732</v>
+      </c>
+      <c r="F36">
+        <v>0.50971897744757722</v>
+      </c>
+      <c r="G36">
+        <v>8155.5036391612357</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.61816900167977229</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>13193</v>
+      </c>
+      <c r="L36">
+        <v>108145.6394245652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37">
+        <v>7088</v>
+      </c>
+      <c r="C37">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="E37">
+        <v>1.418278529980658</v>
+      </c>
+      <c r="F37">
+        <v>0.67658320236708824</v>
+      </c>
+      <c r="G37">
+        <v>10825.331237873412</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1.5272758518444429</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>14176</v>
+      </c>
+      <c r="L37">
+        <v>63287.51418989848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38">
+        <v>404.05</v>
+      </c>
+      <c r="C38">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="E38">
+        <v>1.424511545293073</v>
+      </c>
+      <c r="F38">
+        <v>0.67955663344661987</v>
+      </c>
+      <c r="G38">
+        <v>10872.906135145919</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>26.909803576651203</v>
+      </c>
+      <c r="J38">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <v>10909.35</v>
+      </c>
+      <c r="L38">
+        <v>39937.040277031032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>15277</v>
+      </c>
+      <c r="C39">
+        <v>1.0936999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.06</v>
+      </c>
+      <c r="E39">
+        <v>17.228333333333339</v>
+      </c>
+      <c r="F39">
+        <v>8.2186966041665226</v>
+      </c>
+      <c r="G39">
+        <v>131499.14566666435</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>8.6076550151642568</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>137493</v>
+      </c>
+      <c r="L39">
+        <v>1261897.114275459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>1673</v>
+      </c>
+      <c r="C40">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="E40">
+        <v>1.009754655631097</v>
+      </c>
+      <c r="F40">
+        <v>0.48169878064873528</v>
+      </c>
+      <c r="G40">
+        <v>7707.1804903797647</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4.6068024449370979</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>8365</v>
+      </c>
+      <c r="L40">
+        <v>23032.347894743041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41">
+        <v>2220.9</v>
+      </c>
+      <c r="C41">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="D41">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="E41">
+        <v>1.1567588777712381</v>
+      </c>
+      <c r="F41">
+        <v>0.55182646380446632</v>
+      </c>
+      <c r="G41">
+        <v>8829.2234208714617</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>3.9755159713951378</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>8883.6</v>
+      </c>
+      <c r="L41">
+        <v>39877.225964042649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <v>407</v>
+      </c>
+      <c r="C42">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="E42">
+        <v>1.23875486381323</v>
+      </c>
+      <c r="F42">
+        <v>0.59094226908870384</v>
+      </c>
+      <c r="G42">
+        <v>9455.0763054192612</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>23.231145713560839</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>9768</v>
+      </c>
+      <c r="L42">
+        <v>62440.930485786084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43">
+        <v>1421.6</v>
+      </c>
+      <c r="C43">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.2271</v>
+      </c>
+      <c r="E43">
+        <v>1.928225451343021</v>
+      </c>
+      <c r="F43">
+        <v>0.91985101880741083</v>
+      </c>
+      <c r="G43">
+        <v>14717.616300918573</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>10.352853334917398</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>15637.599999999999</v>
+      </c>
+      <c r="L43">
+        <v>52555.54720335218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44">
+        <v>448.95</v>
+      </c>
+      <c r="C44">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="D44">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="E44">
+        <v>1.714900021500753</v>
+      </c>
+      <c r="F44">
+        <v>0.81808511075902102</v>
+      </c>
+      <c r="G44">
+        <v>13089.361772144337</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>29.155500105010219</v>
+      </c>
+      <c r="J44">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>13468.5</v>
+      </c>
+      <c r="L44">
+        <v>86332.802255456263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45">
+        <v>724.7</v>
+      </c>
+      <c r="C45">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="E45">
+        <v>1.0925961354505449</v>
+      </c>
+      <c r="F45">
+        <v>0.52121792482264839</v>
+      </c>
+      <c r="G45">
+        <v>8339.4867971623735</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>11.507502134900474</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>8696.4000000000015</v>
+      </c>
+      <c r="L45">
+        <v>37738.207713132069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="D46">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="E46">
+        <v>2.200463116109824</v>
+      </c>
+      <c r="F46">
+        <v>1.0497207356079421</v>
+      </c>
+      <c r="G46">
+        <v>16795.531769727073</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>13.03596070298593</v>
+      </c>
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>18037.600000000002</v>
+      </c>
+      <c r="L46">
+        <v>92618.362901527536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47">
+        <v>16850</v>
+      </c>
+      <c r="C47">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="D47">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="E47">
+        <v>1.1195894689870589</v>
+      </c>
+      <c r="F47">
+        <v>0.53409496953610591</v>
+      </c>
+      <c r="G47">
+        <v>8545.5195125776954</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.50715249332805312</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>16850</v>
+      </c>
+      <c r="L47">
+        <v>64191.298462189181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48">
+        <v>430.15</v>
+      </c>
+      <c r="C48">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="D48">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="E48">
+        <v>1.0062988158226249</v>
+      </c>
+      <c r="F48">
+        <v>0.48005018827773271</v>
+      </c>
+      <c r="G48">
+        <v>7680.8030124437237</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>17.856103713689933</v>
+      </c>
+      <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>7742.7</v>
+      </c>
+      <c r="L48">
+        <v>24066.639803440936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <v>6794</v>
+      </c>
+      <c r="C49">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="D49">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="E49">
+        <v>1.6620780072107511</v>
+      </c>
+      <c r="F49">
+        <v>0.79288661354684276</v>
+      </c>
+      <c r="G49">
+        <v>12686.185816749485</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1.8672631464158793</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>13588</v>
+      </c>
+      <c r="L49">
+        <v>52293.254355789068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50">
+        <v>496.6</v>
+      </c>
+      <c r="C50">
+        <v>1.7536</v>
+      </c>
+      <c r="D50">
+        <v>1.4379</v>
+      </c>
+      <c r="E50">
+        <v>1.177828778079143</v>
+      </c>
+      <c r="F50">
+        <v>0.56187776213729268</v>
+      </c>
+      <c r="G50">
+        <v>8990.0441941966837</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>18.103190080943783</v>
+      </c>
+      <c r="J50">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>9435.4</v>
+      </c>
+      <c r="L50">
+        <v>196998.47994318604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51">
+        <v>307.45</v>
+      </c>
+      <c r="C51">
+        <v>0.69629999999999992</v>
+      </c>
+      <c r="D51">
+        <v>0.46289999999999998</v>
+      </c>
+      <c r="E51">
+        <v>1.3745949449125081</v>
+      </c>
+      <c r="F51">
+        <v>0.65574415048023005</v>
+      </c>
+      <c r="G51">
+        <v>10491.90640768368</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>34.125569711119468</v>
+      </c>
+      <c r="J51">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>10760.75</v>
+      </c>
+      <c r="L51">
+        <v>52523.12141048997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>